--- a/docs/shr-core-ContactDetail-extension.xlsx
+++ b/docs/shr-core-ContactDetail-extension.xlsx
@@ -186,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t>The person name, constrained to map correctly to FHIR.</t>
+    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
   </si>
   <si>
     <t>contactpoint</t>
